--- a/outputs-HGR-r202/g__Eubacterium_F.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33356.fa</t>
+          <t>even_MAG-GUT33095.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.227337967240067e-06</v>
+        <v>2.859222364837837e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003018031787165929</v>
+        <v>0.0003148489963444426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9447889919830472</v>
+        <v>0.9544324710310594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05490397750026888</v>
+        <v>0.04525239405035977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9447889919830472</v>
+        <v>0.9544324710310594</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35945.fa</t>
+          <t>even_MAG-GUT33356.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.427972700201462e-06</v>
+        <v>5.227337967240067e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004554365489769151</v>
+        <v>0.0003018031787165929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9328265631454354</v>
+        <v>0.9447889919830472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06670857233288738</v>
+        <v>0.05490397750026888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9328265631454354</v>
+        <v>0.9447889919830472</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36580.fa</t>
+          <t>even_MAG-GUT35945.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.450112944380089e-06</v>
+        <v>9.427972700201462e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002853813867454806</v>
+        <v>0.0004554365489769151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9648625564729604</v>
+        <v>0.9328265631454354</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03227517954664046</v>
+        <v>0.06670857233288738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9648625564729604</v>
+        <v>0.9328265631454354</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38547.fa</t>
+          <t>even_MAG-GUT36580.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.840213102443796e-06</v>
+        <v>8.450112944380089e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008941268331772629</v>
+        <v>0.002853813867454806</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9591844551913814</v>
+        <v>0.9648625564729604</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03991657776233892</v>
+        <v>0.03227517954664046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9591844551913814</v>
+        <v>0.9648625564729604</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38625.fa</t>
+          <t>even_MAG-GUT38547.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.372072785075887e-06</v>
+        <v>4.840213102443796e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007713564325713724</v>
+        <v>0.0008941268331772629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9670950707374009</v>
+        <v>0.9591844551913814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03212720075724271</v>
+        <v>0.03991657776233892</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9670950707374009</v>
+        <v>0.9591844551913814</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41148.fa</t>
+          <t>even_MAG-GUT38625.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.012692542930465e-05</v>
+        <v>6.372072785075887e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002068473761517736</v>
+        <v>0.0007713564325713724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9693592447333583</v>
+        <v>0.9670950707374009</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0285121545796947</v>
+        <v>0.03212720075724271</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9693592447333583</v>
+        <v>0.9670950707374009</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42537.fa</t>
+          <t>even_MAG-GUT41148.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.229495412661514e-06</v>
+        <v>6.012692542930465e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006981262119023283</v>
+        <v>0.002068473761517736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9698505196180955</v>
+        <v>0.9693592447333583</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0231649887674685</v>
+        <v>0.0285121545796947</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9698505196180955</v>
+        <v>0.9693592447333583</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4440.fa</t>
+          <t>even_MAG-GUT42537.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.053359584338418e-05</v>
+        <v>3.229495412661514e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009236996803686288</v>
+        <v>0.006981262119023283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9691270875351214</v>
+        <v>0.9698505196180955</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02160538206534889</v>
+        <v>0.0231649887674685</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9691270875351214</v>
+        <v>0.9698505196180955</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46397.fa</t>
+          <t>even_MAG-GUT4440.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.68145233957917e-06</v>
+        <v>3.053359584338418e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008322515677875761</v>
+        <v>0.009236996803686288</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9734239312759941</v>
+        <v>0.9691270875351214</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02574013570387858</v>
+        <v>0.02160538206534889</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9734239312759941</v>
+        <v>0.9691270875351214</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,23 +1023,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46652.fa</t>
+          <t>even_MAG-GUT46397.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.607497479528062e-06</v>
+        <v>3.68145233957917e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004984884635106908</v>
+        <v>0.0008322515677875761</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9345692893959175</v>
+        <v>0.9734239312759941</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06492861464309235</v>
+        <v>0.02574013570387858</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9345692893959175</v>
+        <v>0.9734239312759941</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,23 +1055,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53236.fa</t>
+          <t>even_MAG-GUT46652.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.926618475711735e-06</v>
+        <v>3.607497479528062e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001055603962641364</v>
+        <v>0.0004984884635106908</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9513222853492891</v>
+        <v>0.9345692893959175</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04761218406959386</v>
+        <v>0.06492861464309235</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9513222853492891</v>
+        <v>0.9345692893959175</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1087,23 +1087,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58152.fa</t>
+          <t>even_MAG-GUT53236.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.619490682976794e-06</v>
+        <v>9.926618475711735e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003318367655977651</v>
+        <v>0.001055603962641364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9637947007047408</v>
+        <v>0.9513222853492891</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03287931214859852</v>
+        <v>0.04761218406959386</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9637947007047408</v>
+        <v>0.9513222853492891</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59497.fa</t>
+          <t>even_MAG-GUT58152.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.369744617709785e-06</v>
+        <v>7.619490682976794e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005776140484649841</v>
+        <v>0.003318367655977651</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9543141437100706</v>
+        <v>0.9637947007047408</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04510187249684667</v>
+        <v>0.03287931214859852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9543141437100706</v>
+        <v>0.9637947007047408</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,87 +1151,87 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74541.fa</t>
+          <t>even_MAG-GUT59497.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001520866178808921</v>
+        <v>6.369744617709785e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1524569947993466</v>
+        <v>0.0005776140484649841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004848947684312631</v>
+        <v>0.9543141437100706</v>
       </c>
       <c r="E23" t="n">
-        <v>0.841173191337532</v>
+        <v>0.04510187249684667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.841173191337532</v>
+        <v>0.9543141437100706</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>s__Eubacterium_F sp900539115</t>
+          <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Eubacterium_F sp900539115</t>
+          <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79662.fa</t>
+          <t>even_MAG-GUT74541.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.267038101281265e-06</v>
+        <v>0.001520866178808921</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009066979022785617</v>
+        <v>0.1524569947993466</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9567202041432477</v>
+        <v>0.004848947684312631</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04236883091637242</v>
+        <v>0.841173191337532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9567202041432477</v>
+        <v>0.841173191337532</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>s__Eubacterium_F sp003491505</t>
+          <t>s__Eubacterium_F sp900539115</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Eubacterium_F sp003491505</t>
+          <t>s__Eubacterium_F sp900539115</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81918.fa</t>
+          <t>even_MAG-GUT79662.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.964121127479407e-05</v>
+        <v>4.267038101281265e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000993238581213865</v>
+        <v>0.0009066979022785617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9585974302336672</v>
+        <v>0.9567202041432477</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04037968997384408</v>
+        <v>0.04236883091637242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9585974302336672</v>
+        <v>0.9567202041432477</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1247,23 +1247,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82016.fa</t>
+          <t>even_MAG-GUT81918.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.313465580677852e-06</v>
+        <v>2.964121127479407e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008269550152398947</v>
+        <v>0.000993238581213865</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9236374679925921</v>
+        <v>0.9585974302336672</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07553126352658736</v>
+        <v>0.04037968997384408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9236374679925921</v>
+        <v>0.9585974302336672</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT822.fa</t>
+          <t>even_MAG-GUT82016.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.150858433188407e-05</v>
+        <v>4.313465580677852e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003423516847176069</v>
+        <v>0.0008269550152398947</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9781025386739149</v>
+        <v>0.9236374679925921</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01845243589457706</v>
+        <v>0.07553126352658736</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9781025386739149</v>
+        <v>0.9236374679925921</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,30 +1311,62 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT822.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.150858433188407e-05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.003423516847176069</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9781025386739149</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01845243589457706</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9781025386739149</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT85312.fa</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>3.470940097999005e-05</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>0.00493073037846767</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>0.9667699169917491</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>0.02826464322880326</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>0.9667699169917491</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_F sp003491505</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>s__Eubacterium_F sp003491505</t>
         </is>

--- a/outputs-HGR-r202/g__Eubacterium_F.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__Eubacterium_F sp000433735</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp000433735</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>s__Eubacterium_F sp000434115</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp000434115</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>s__Eubacterium_F sp900539115</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp900539115</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>s__Eubacterium_F sp003491505</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1276,6 +1426,11 @@
         <v>0.9667699169917491</v>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_F sp003491505</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>s__Eubacterium_F sp003491505</t>
         </is>

--- a/outputs-HGR-r202/g__Eubacterium_F.xlsx
+++ b/outputs-HGR-r202/g__Eubacterium_F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,70 +1372,6 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT822.fa</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2.150858433188407e-05</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.003423516847176069</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9781025386739149</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.01845243589457706</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9781025386739149</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_F sp003491505</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_F sp003491505</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85312.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>3.470940097999005e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.00493073037846767</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9667699169917491</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.02826464322880326</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.9667699169917491</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_F sp003491505</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_F sp003491505</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
